--- a/experiments/ISSTA21/Results.xlsx
+++ b/experiments/ISSTA21/Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="2064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="2062">
   <si>
     <t>ID</t>
   </si>
@@ -5456,13 +5456,10 @@
     <t>Successful</t>
   </si>
   <si>
-    <t>Identical</t>
-  </si>
-  <si>
-    <t>Equivalent</t>
-  </si>
-  <si>
-    <t>identical</t>
+    <t>Syntactic Equivalent</t>
+  </si>
+  <si>
+    <t>Semantic Equivalent</t>
   </si>
   <si>
     <t>transformation glitches</t>
@@ -5475,9 +5472,6 @@
   </si>
   <si>
     <t>segmentation fault</t>
-  </si>
-  <si>
-    <t>equivalent</t>
   </si>
   <si>
     <t>failed to find clone</t>
@@ -6213,7 +6207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -6244,6 +6238,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -6259,7 +6258,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6290,7 +6289,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6298,6 +6297,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -23941,7 +23943,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D2" s="12">
         <v>1.0</v>
@@ -23962,7 +23964,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D3" s="12">
         <v>1.0</v>
@@ -23982,8 +23984,8 @@
         <f>VLOOKUP(A4,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>1816</v>
+      <c r="C4" s="14" t="s">
+        <v>1815</v>
       </c>
       <c r="D4" s="12">
         <v>0.0</v>
@@ -24003,8 +24005,8 @@
         <f>VLOOKUP(A5,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>1816</v>
+      <c r="C5" s="14" t="s">
+        <v>1815</v>
       </c>
       <c r="D5" s="12">
         <v>0.0</v>
@@ -24025,7 +24027,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D6" s="12">
         <v>1.0</v>
@@ -24046,7 +24048,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D7" s="12">
         <v>1.0</v>
@@ -24067,7 +24069,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D8" s="12">
         <v>1.0</v>
@@ -24088,7 +24090,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D9" s="12">
         <v>1.0</v>
@@ -24109,7 +24111,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D10" s="12">
         <v>1.0</v>
@@ -24130,7 +24132,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D11" s="12">
         <v>1.0</v>
@@ -24150,8 +24152,8 @@
         <f>VLOOKUP(A12,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>1817</v>
+      <c r="C12" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D12" s="12">
         <v>1.0</v>
@@ -24172,7 +24174,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D13" s="12">
         <v>1.0</v>
@@ -24193,7 +24195,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D14" s="12">
         <v>1.0</v>
@@ -24214,7 +24216,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D15" s="12">
         <v>1.0</v>
@@ -24235,7 +24237,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D16" s="12">
         <v>1.0</v>
@@ -24255,8 +24257,8 @@
         <f>VLOOKUP(A17,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>1818</v>
+      <c r="C17" s="15" t="s">
+        <v>1817</v>
       </c>
       <c r="D17" s="11">
         <v>0.0</v>
@@ -24277,7 +24279,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D18" s="12">
         <v>1.0</v>
@@ -24298,7 +24300,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D19" s="12">
         <v>1.0</v>
@@ -24319,7 +24321,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D20" s="12">
         <v>1.0</v>
@@ -24340,7 +24342,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D21" s="12">
         <v>1.0</v>
@@ -24360,8 +24362,8 @@
         <f>VLOOKUP(A22,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>1819</v>
+      <c r="C22" s="14" t="s">
+        <v>1818</v>
       </c>
       <c r="D22" s="12">
         <v>0.0</v>
@@ -24381,8 +24383,8 @@
         <f>VLOOKUP(A23,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>1816</v>
+      <c r="C23" s="14" t="s">
+        <v>1815</v>
       </c>
       <c r="D23" s="12">
         <v>0.0</v>
@@ -24403,7 +24405,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D24" s="12">
         <v>1.0</v>
@@ -24423,8 +24425,8 @@
         <f>VLOOKUP(A25,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>1820</v>
+      <c r="C25" s="13" t="s">
+        <v>1814</v>
       </c>
       <c r="D25" s="12">
         <v>1.0</v>
@@ -24444,8 +24446,8 @@
         <f>VLOOKUP(A26,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>1819</v>
+      <c r="C26" s="14" t="s">
+        <v>1818</v>
       </c>
       <c r="D26" s="12">
         <v>0.0</v>
@@ -24466,7 +24468,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D27" s="12">
         <v>1.0</v>
@@ -24486,8 +24488,8 @@
         <f>VLOOKUP(A28,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>1821</v>
+      <c r="C28" s="14" t="s">
+        <v>1819</v>
       </c>
       <c r="D28" s="12">
         <v>0.0</v>
@@ -24508,7 +24510,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D29" s="12">
         <v>1.0</v>
@@ -24529,7 +24531,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D30" s="12">
         <v>1.0</v>
@@ -24550,7 +24552,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D31" s="12">
         <v>1.0</v>
@@ -24570,8 +24572,8 @@
         <f>VLOOKUP(A32,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>1815</v>
+      <c r="C32" s="13" t="s">
+        <v>1813</v>
       </c>
       <c r="D32" s="11">
         <v>1.0</v>
@@ -24592,7 +24594,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D33" s="12">
         <v>1.0</v>
@@ -24612,8 +24614,8 @@
         <f>VLOOKUP(A34,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>1821</v>
+      <c r="C34" s="14" t="s">
+        <v>1819</v>
       </c>
       <c r="D34" s="12">
         <v>0.0</v>
@@ -24634,7 +24636,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D35" s="12">
         <v>1.0</v>
@@ -24654,8 +24656,8 @@
         <f>VLOOKUP(A36,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>1816</v>
+      <c r="C36" s="14" t="s">
+        <v>1815</v>
       </c>
       <c r="D36" s="12">
         <v>0.0</v>
@@ -24675,8 +24677,8 @@
         <f>VLOOKUP(A37,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>1818</v>
+      <c r="C37" s="15" t="s">
+        <v>1817</v>
       </c>
       <c r="D37" s="11">
         <v>0.0</v>
@@ -24696,8 +24698,8 @@
         <f>VLOOKUP(A38,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>1822</v>
+      <c r="C38" s="14" t="s">
+        <v>1820</v>
       </c>
       <c r="D38" s="12">
         <v>0.0</v>
@@ -24718,7 +24720,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D39" s="12">
         <v>1.0</v>
@@ -24739,7 +24741,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D40" s="12">
         <v>1.0</v>
@@ -24759,8 +24761,8 @@
         <f>VLOOKUP(A41,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>1815</v>
+      <c r="C41" s="13" t="s">
+        <v>1813</v>
       </c>
       <c r="D41" s="11">
         <v>1.0</v>
@@ -24781,7 +24783,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D42" s="12">
         <v>1.0</v>
@@ -24802,7 +24804,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D43" s="12">
         <v>1.0</v>
@@ -24823,7 +24825,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D44" s="12">
         <v>1.0</v>
@@ -24844,7 +24846,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D45" s="12">
         <v>1.0</v>
@@ -24864,8 +24866,8 @@
         <f>VLOOKUP(A46,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>1822</v>
+      <c r="C46" s="14" t="s">
+        <v>1820</v>
       </c>
       <c r="D46" s="12">
         <v>0.0</v>
@@ -24886,7 +24888,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D47" s="12">
         <v>1.0</v>
@@ -24907,7 +24909,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D48" s="12">
         <v>1.0</v>
@@ -24928,7 +24930,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D49" s="12">
         <v>1.0</v>
@@ -24949,7 +24951,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D50" s="12">
         <v>1.0</v>
@@ -24969,8 +24971,8 @@
         <f>VLOOKUP(A51,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>1817</v>
+      <c r="C51" s="15" t="s">
+        <v>1816</v>
       </c>
       <c r="D51" s="12">
         <v>0.0</v>
@@ -24991,7 +24993,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D52" s="12">
         <v>1.0</v>
@@ -25012,7 +25014,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D53" s="12">
         <v>1.0</v>
@@ -25033,7 +25035,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D54" s="12">
         <v>1.0</v>
@@ -25054,7 +25056,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D55" s="12">
         <v>1.0</v>
@@ -25075,7 +25077,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D56" s="12">
         <v>1.0</v>
@@ -25096,7 +25098,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D57" s="12">
         <v>1.0</v>
@@ -25117,7 +25119,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D58" s="12">
         <v>1.0</v>
@@ -25137,8 +25139,8 @@
         <f>VLOOKUP(A59,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>1817</v>
+      <c r="C59" s="15" t="s">
+        <v>1816</v>
       </c>
       <c r="D59" s="12">
         <v>1.0</v>
@@ -25159,7 +25161,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D60" s="12">
         <v>1.0</v>
@@ -25180,7 +25182,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D61" s="12">
         <v>1.0</v>
@@ -25200,8 +25202,8 @@
         <f>VLOOKUP(A62,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>1818</v>
+      <c r="C62" s="15" t="s">
+        <v>1817</v>
       </c>
       <c r="D62" s="11">
         <v>0.0</v>
@@ -25222,7 +25224,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D63" s="12">
         <v>1.0</v>
@@ -25243,7 +25245,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D64" s="12">
         <v>1.0</v>
@@ -25264,7 +25266,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D65" s="12">
         <v>1.0</v>
@@ -25285,7 +25287,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D66" s="12">
         <v>1.0</v>
@@ -25306,7 +25308,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D67" s="12">
         <v>1.0</v>
@@ -25327,7 +25329,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D68" s="12">
         <v>1.0</v>
@@ -25348,7 +25350,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D69" s="12">
         <v>1.0</v>
@@ -25369,7 +25371,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D70" s="12">
         <v>1.0</v>
@@ -25390,7 +25392,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D71" s="12">
         <v>1.0</v>
@@ -25411,7 +25413,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D72" s="12">
         <v>1.0</v>
@@ -25432,7 +25434,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D73" s="12">
         <v>1.0</v>
@@ -25453,7 +25455,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D74" s="12">
         <v>1.0</v>
@@ -25474,7 +25476,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D75" s="12">
         <v>1.0</v>
@@ -25495,7 +25497,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D76" s="12">
         <v>1.0</v>
@@ -25516,7 +25518,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D77" s="12">
         <v>1.0</v>
@@ -25537,7 +25539,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D78" s="12">
         <v>1.0</v>
@@ -25558,7 +25560,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D79" s="12">
         <v>1.0</v>
@@ -25579,7 +25581,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D80" s="12">
         <v>1.0</v>
@@ -25600,7 +25602,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D81" s="12">
         <v>1.0</v>
@@ -25621,7 +25623,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D82" s="12">
         <v>1.0</v>
@@ -25642,7 +25644,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D83" s="12">
         <v>1.0</v>
@@ -25663,7 +25665,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D84" s="12">
         <v>1.0</v>
@@ -25684,7 +25686,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D85" s="12">
         <v>1.0</v>
@@ -25705,7 +25707,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D86" s="12">
         <v>1.0</v>
@@ -25726,7 +25728,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D87" s="12">
         <v>1.0</v>
@@ -25747,7 +25749,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D88" s="12">
         <v>1.0</v>
@@ -25768,7 +25770,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D89" s="12">
         <v>1.0</v>
@@ -25789,7 +25791,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D90" s="12">
         <v>1.0</v>
@@ -25810,7 +25812,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D91" s="12">
         <v>1.0</v>
@@ -25831,7 +25833,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D92" s="12">
         <v>1.0</v>
@@ -25852,7 +25854,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D93" s="12">
         <v>1.0</v>
@@ -25872,8 +25874,8 @@
         <f>VLOOKUP(A94,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>1815</v>
+      <c r="C94" s="13" t="s">
+        <v>1813</v>
       </c>
       <c r="D94" s="11">
         <v>1.0</v>
@@ -25894,7 +25896,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D95" s="12">
         <v>1.0</v>
@@ -25915,7 +25917,7 @@
         <v>2</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D96" s="12">
         <v>1.0</v>
@@ -25935,8 +25937,8 @@
         <f>VLOOKUP(A97,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>1817</v>
+      <c r="C97" s="15" t="s">
+        <v>1816</v>
       </c>
       <c r="D97" s="12">
         <v>1.0</v>
@@ -25957,7 +25959,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D98" s="12">
         <v>1.0</v>
@@ -25977,8 +25979,8 @@
         <f>VLOOKUP(A99,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>1815</v>
+      <c r="C99" s="13" t="s">
+        <v>1813</v>
       </c>
       <c r="D99" s="12">
         <v>1.0</v>
@@ -25999,7 +26001,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D100" s="12">
         <v>1.0</v>
@@ -26020,7 +26022,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D101" s="12">
         <v>1.0</v>
@@ -26041,7 +26043,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D102" s="12">
         <v>1.0</v>
@@ -26062,7 +26064,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D103" s="12">
         <v>1.0</v>
@@ -26083,7 +26085,7 @@
         <v>2</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D104" s="12">
         <v>1.0</v>
@@ -26104,7 +26106,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D105" s="12">
         <v>1.0</v>
@@ -26125,7 +26127,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D106" s="12">
         <v>1.0</v>
@@ -26146,7 +26148,7 @@
         <v>2</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D107" s="12">
         <v>1.0</v>
@@ -26167,7 +26169,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D108" s="12">
         <v>1.0</v>
@@ -26188,7 +26190,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D109" s="12">
         <v>1.0</v>
@@ -26208,8 +26210,8 @@
         <f>VLOOKUP(A110,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C110" s="14" t="s">
-        <v>1820</v>
+      <c r="C110" s="13" t="s">
+        <v>1814</v>
       </c>
       <c r="D110" s="12">
         <v>1.0</v>
@@ -26230,7 +26232,7 @@
         <v>2</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D111" s="12">
         <v>1.0</v>
@@ -26251,7 +26253,7 @@
         <v>2</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D112" s="12">
         <v>1.0</v>
@@ -26272,7 +26274,7 @@
         <v>2</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D113" s="12">
         <v>1.0</v>
@@ -26293,7 +26295,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D114" s="12">
         <v>1.0</v>
@@ -26314,7 +26316,7 @@
         <v>2</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D115" s="12">
         <v>1.0</v>
@@ -26335,7 +26337,7 @@
         <v>2</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D116" s="12">
         <v>1.0</v>
@@ -26356,7 +26358,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D117" s="12">
         <v>1.0</v>
@@ -26377,7 +26379,7 @@
         <v>2</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D118" s="12">
         <v>1.0</v>
@@ -26397,8 +26399,8 @@
         <f>VLOOKUP(A119,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C119" s="13" t="s">
-        <v>1817</v>
+      <c r="C119" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D119" s="12">
         <v>1.0</v>
@@ -26419,7 +26421,7 @@
         <v>2</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D120" s="12">
         <v>1.0</v>
@@ -26439,8 +26441,8 @@
         <f>VLOOKUP(A121,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C121" s="13" t="s">
-        <v>1817</v>
+      <c r="C121" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D121" s="12">
         <v>1.0</v>
@@ -26461,7 +26463,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D122" s="12">
         <v>1.0</v>
@@ -26481,8 +26483,8 @@
         <f>VLOOKUP(A123,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C123" s="14" t="s">
-        <v>1815</v>
+      <c r="C123" s="13" t="s">
+        <v>1813</v>
       </c>
       <c r="D123" s="12">
         <v>1.0</v>
@@ -26503,7 +26505,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D124" s="12">
         <v>1.0</v>
@@ -26524,7 +26526,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D125" s="12">
         <v>1.0</v>
@@ -26544,8 +26546,8 @@
         <f>VLOOKUP(A126,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C126" s="14" t="s">
-        <v>1818</v>
+      <c r="C126" s="15" t="s">
+        <v>1817</v>
       </c>
       <c r="D126" s="11">
         <v>0.0</v>
@@ -26566,7 +26568,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D127" s="12">
         <v>1.0</v>
@@ -26587,7 +26589,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D128" s="12">
         <v>1.0</v>
@@ -26608,7 +26610,7 @@
         <v>2</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D129" s="12">
         <v>1.0</v>
@@ -26628,8 +26630,8 @@
         <f>VLOOKUP(A130,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C130" s="13" t="s">
-        <v>1817</v>
+      <c r="C130" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D130" s="12">
         <v>1.0</v>
@@ -26650,7 +26652,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D131" s="12">
         <v>1.0</v>
@@ -26671,7 +26673,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D132" s="12">
         <v>1.0</v>
@@ -26692,7 +26694,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D133" s="12">
         <v>1.0</v>
@@ -26713,7 +26715,7 @@
         <v>2</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D134" s="12">
         <v>1.0</v>
@@ -26734,7 +26736,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D135" s="12">
         <v>1.0</v>
@@ -26755,7 +26757,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D136" s="12">
         <v>1.0</v>
@@ -26775,8 +26777,8 @@
         <f>VLOOKUP(A137,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C137" s="14" t="s">
-        <v>1818</v>
+      <c r="C137" s="15" t="s">
+        <v>1817</v>
       </c>
       <c r="D137" s="11">
         <v>0.0</v>
@@ -26797,7 +26799,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D138" s="12">
         <v>1.0</v>
@@ -26818,7 +26820,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D139" s="12">
         <v>1.0</v>
@@ -26839,7 +26841,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D140" s="12">
         <v>1.0</v>
@@ -26860,7 +26862,7 @@
         <v>2</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D141" s="12">
         <v>1.0</v>
@@ -26881,7 +26883,7 @@
         <v>2</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D142" s="12">
         <v>1.0</v>
@@ -26902,7 +26904,7 @@
         <v>2</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D143" s="12">
         <v>1.0</v>
@@ -26923,7 +26925,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D144" s="12">
         <v>1.0</v>
@@ -26944,7 +26946,7 @@
         <v>2</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D145" s="12">
         <v>1.0</v>
@@ -26965,7 +26967,7 @@
         <v>2</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D146" s="12">
         <v>1.0</v>
@@ -26986,7 +26988,7 @@
         <v>2</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D147" s="12">
         <v>1.0</v>
@@ -27007,7 +27009,7 @@
         <v>2</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D148" s="12">
         <v>1.0</v>
@@ -27028,7 +27030,7 @@
         <v>2</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D149" s="12">
         <v>1.0</v>
@@ -27049,7 +27051,7 @@
         <v>2</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D150" s="12">
         <v>1.0</v>
@@ -27070,7 +27072,7 @@
         <v>2</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D151" s="12">
         <v>1.0</v>
@@ -27091,7 +27093,7 @@
         <v>2</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D152" s="12">
         <v>1.0</v>
@@ -27112,7 +27114,7 @@
         <v>2</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D153" s="12">
         <v>1.0</v>
@@ -27133,7 +27135,7 @@
         <v>2</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D154" s="12">
         <v>1.0</v>
@@ -27154,7 +27156,7 @@
         <v>2</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D155" s="12">
         <v>1.0</v>
@@ -27175,7 +27177,7 @@
         <v>2</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D156" s="12">
         <v>1.0</v>
@@ -27196,7 +27198,7 @@
         <v>2</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D157" s="12">
         <v>1.0</v>
@@ -27217,7 +27219,7 @@
         <v>2</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D158" s="12">
         <v>1.0</v>
@@ -27238,7 +27240,7 @@
         <v>2</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D159" s="12">
         <v>1.0</v>
@@ -27259,7 +27261,7 @@
         <v>2</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D160" s="12">
         <v>1.0</v>
@@ -27280,7 +27282,7 @@
         <v>2</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D161" s="12">
         <v>1.0</v>
@@ -27301,7 +27303,7 @@
         <v>2</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D162" s="12">
         <v>1.0</v>
@@ -27322,7 +27324,7 @@
         <v>2</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D163" s="12">
         <v>1.0</v>
@@ -27343,7 +27345,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D164" s="12">
         <v>1.0</v>
@@ -27364,7 +27366,7 @@
         <v>2</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D165" s="12">
         <v>1.0</v>
@@ -27385,7 +27387,7 @@
         <v>2</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D166" s="12">
         <v>1.0</v>
@@ -27406,7 +27408,7 @@
         <v>2</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D167" s="12">
         <v>1.0</v>
@@ -27427,7 +27429,7 @@
         <v>2</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D168" s="12">
         <v>1.0</v>
@@ -27448,7 +27450,7 @@
         <v>2</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D169" s="12">
         <v>1.0</v>
@@ -27469,7 +27471,7 @@
         <v>2</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D170" s="12">
         <v>1.0</v>
@@ -27490,7 +27492,7 @@
         <v>2</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D171" s="12">
         <v>1.0</v>
@@ -27511,7 +27513,7 @@
         <v>2</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D172" s="12">
         <v>1.0</v>
@@ -27532,7 +27534,7 @@
         <v>2</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D173" s="12">
         <v>1.0</v>
@@ -27553,7 +27555,7 @@
         <v>2</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D174" s="12">
         <v>1.0</v>
@@ -27573,8 +27575,8 @@
         <f>VLOOKUP(A175,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C175" s="14" t="s">
-        <v>1823</v>
+      <c r="C175" s="15" t="s">
+        <v>1821</v>
       </c>
       <c r="D175" s="11">
         <v>0.0</v>
@@ -27594,8 +27596,8 @@
         <f>VLOOKUP(A176,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C176" s="14" t="s">
-        <v>1815</v>
+      <c r="C176" s="13" t="s">
+        <v>1813</v>
       </c>
       <c r="D176" s="11">
         <v>1.0</v>
@@ -27616,7 +27618,7 @@
         <v>2</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D177" s="12">
         <v>1.0</v>
@@ -27637,7 +27639,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D178" s="12">
         <v>1.0</v>
@@ -27658,7 +27660,7 @@
         <v>2</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D179" s="12">
         <v>1.0</v>
@@ -27678,8 +27680,8 @@
         <f>VLOOKUP(A180,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C180" s="14" t="s">
-        <v>1824</v>
+      <c r="C180" s="15" t="s">
+        <v>1822</v>
       </c>
       <c r="D180" s="12">
         <v>0.0</v>
@@ -27699,8 +27701,8 @@
         <f>VLOOKUP(A181,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C181" s="13" t="s">
-        <v>1825</v>
+      <c r="C181" s="14" t="s">
+        <v>1823</v>
       </c>
       <c r="D181" s="12">
         <v>0.0</v>
@@ -27721,7 +27723,7 @@
         <v>2</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D182" s="12">
         <v>1.0</v>
@@ -27742,7 +27744,7 @@
         <v>2</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D183" s="12">
         <v>1.0</v>
@@ -27762,8 +27764,8 @@
         <f>VLOOKUP(A184,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C184" s="13" t="s">
-        <v>1826</v>
+      <c r="C184" s="14" t="s">
+        <v>1824</v>
       </c>
       <c r="D184" s="12">
         <v>0.0</v>
@@ -27784,7 +27786,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D185" s="12">
         <v>1.0</v>
@@ -27804,8 +27806,8 @@
         <f>VLOOKUP(A186,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C186" s="13" t="s">
-        <v>1824</v>
+      <c r="C186" s="14" t="s">
+        <v>1822</v>
       </c>
       <c r="D186" s="12">
         <v>0.0</v>
@@ -27826,7 +27828,7 @@
         <v>2</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D187" s="12">
         <v>1.0</v>
@@ -27847,7 +27849,7 @@
         <v>2</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D188" s="12">
         <v>1.0</v>
@@ -27868,7 +27870,7 @@
         <v>2</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D189" s="12">
         <v>1.0</v>
@@ -27889,7 +27891,7 @@
         <v>2</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D190" s="12">
         <v>1.0</v>
@@ -27909,8 +27911,8 @@
         <f>VLOOKUP(A191,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C191" s="13" t="s">
-        <v>1827</v>
+      <c r="C191" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D191" s="12">
         <v>0.0</v>
@@ -27931,7 +27933,7 @@
         <v>2</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D192" s="12">
         <v>1.0</v>
@@ -27952,7 +27954,7 @@
         <v>2</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D193" s="12">
         <v>1.0</v>
@@ -27973,7 +27975,7 @@
         <v>2</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D194" s="12">
         <v>1.0</v>
@@ -27994,7 +27996,7 @@
         <v>2</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D195" s="12">
         <v>1.0</v>
@@ -28015,7 +28017,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D196" s="12">
         <v>1.0</v>
@@ -28036,7 +28038,7 @@
         <v>2</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D197" s="12">
         <v>1.0</v>
@@ -28057,7 +28059,7 @@
         <v>2</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D198" s="12">
         <v>1.0</v>
@@ -28078,7 +28080,7 @@
         <v>2</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D199" s="12">
         <v>1.0</v>
@@ -28099,7 +28101,7 @@
         <v>2</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D200" s="12">
         <v>1.0</v>
@@ -28120,7 +28122,7 @@
         <v>2</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D201" s="12">
         <v>1.0</v>
@@ -28141,7 +28143,7 @@
         <v>2</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D202" s="12">
         <v>1.0</v>
@@ -28162,7 +28164,7 @@
         <v>2</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D203" s="12">
         <v>1.0</v>
@@ -28183,7 +28185,7 @@
         <v>2</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D204" s="12">
         <v>1.0</v>
@@ -28204,7 +28206,7 @@
         <v>2</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D205" s="12">
         <v>1.0</v>
@@ -28225,7 +28227,7 @@
         <v>2</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D206" s="12">
         <v>1.0</v>
@@ -28246,7 +28248,7 @@
         <v>2</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D207" s="12">
         <v>1.0</v>
@@ -28267,7 +28269,7 @@
         <v>2</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D208" s="12">
         <v>1.0</v>
@@ -28288,7 +28290,7 @@
         <v>2</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D209" s="12">
         <v>1.0</v>
@@ -28309,7 +28311,7 @@
         <v>2</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D210" s="12">
         <v>1.0</v>
@@ -28330,7 +28332,7 @@
         <v>2</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D211" s="12">
         <v>1.0</v>
@@ -28351,7 +28353,7 @@
         <v>2</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D212" s="12">
         <v>1.0</v>
@@ -28372,7 +28374,7 @@
         <v>2</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D213" s="12">
         <v>1.0</v>
@@ -28393,7 +28395,7 @@
         <v>2</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D214" s="12">
         <v>1.0</v>
@@ -28414,7 +28416,7 @@
         <v>2</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D215" s="12">
         <v>1.0</v>
@@ -28435,7 +28437,7 @@
         <v>2</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D216" s="12">
         <v>1.0</v>
@@ -28456,7 +28458,7 @@
         <v>2</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D217" s="12">
         <v>1.0</v>
@@ -28477,7 +28479,7 @@
         <v>2</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D218" s="12">
         <v>1.0</v>
@@ -28498,7 +28500,7 @@
         <v>2</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D219" s="12">
         <v>1.0</v>
@@ -28519,7 +28521,7 @@
         <v>2</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D220" s="12">
         <v>1.0</v>
@@ -28540,7 +28542,7 @@
         <v>2</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D221" s="12">
         <v>1.0</v>
@@ -28561,7 +28563,7 @@
         <v>2</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D222" s="12">
         <v>1.0</v>
@@ -28581,8 +28583,8 @@
         <f>VLOOKUP(A223,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C223" s="13" t="s">
-        <v>1817</v>
+      <c r="C223" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D223" s="12">
         <v>1.0</v>
@@ -28603,7 +28605,7 @@
         <v>2</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D224" s="12">
         <v>1.0</v>
@@ -28624,7 +28626,7 @@
         <v>2</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D225" s="12">
         <v>1.0</v>
@@ -28645,7 +28647,7 @@
         <v>2</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D226" s="12">
         <v>1.0</v>
@@ -28666,7 +28668,7 @@
         <v>2</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D227" s="12">
         <v>1.0</v>
@@ -28687,7 +28689,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D228" s="12">
         <v>1.0</v>
@@ -28707,8 +28709,8 @@
         <f>VLOOKUP(A229,'Data Set'!A:B,2, False)</f>
         <v>2</v>
       </c>
-      <c r="C229" s="13" t="s">
-        <v>1828</v>
+      <c r="C229" s="14" t="s">
+        <v>1826</v>
       </c>
       <c r="D229" s="12">
         <v>0.0</v>
@@ -28729,7 +28731,7 @@
         <v>2</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D230" s="12">
         <v>1.0</v>
@@ -28750,7 +28752,7 @@
         <v>2</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D231" s="12">
         <v>1.0</v>
@@ -28771,7 +28773,7 @@
         <v>2</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D232" s="12">
         <v>1.0</v>
@@ -28792,7 +28794,7 @@
         <v>2</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D233" s="12">
         <v>1.0</v>
@@ -28813,7 +28815,7 @@
         <v>2</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D234" s="12">
         <v>1.0</v>
@@ -28834,7 +28836,7 @@
         <v>2</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D235" s="12">
         <v>1.0</v>
@@ -28855,7 +28857,7 @@
         <v>2</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D236" s="12">
         <v>1.0</v>
@@ -28876,7 +28878,7 @@
         <v>2</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D237" s="12">
         <v>1.0</v>
@@ -28896,8 +28898,8 @@
         <f>VLOOKUP(A238,'Data Set'!A:B,2, False)</f>
         <v>3</v>
       </c>
-      <c r="C238" s="13" t="s">
-        <v>1829</v>
+      <c r="C238" s="14" t="s">
+        <v>1827</v>
       </c>
       <c r="D238" s="12">
         <v>0.0</v>
@@ -28917,8 +28919,8 @@
         <f>VLOOKUP(A239,'Data Set'!A:B,2, False)</f>
         <v>3</v>
       </c>
-      <c r="C239" s="14" t="s">
-        <v>1820</v>
+      <c r="C239" s="13" t="s">
+        <v>1814</v>
       </c>
       <c r="D239" s="12">
         <v>1.0</v>
@@ -28939,7 +28941,7 @@
         <v>3</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D240" s="12">
         <v>1.0</v>
@@ -28959,8 +28961,8 @@
         <f>VLOOKUP(A241,'Data Set'!A:B,2, False)</f>
         <v>3</v>
       </c>
-      <c r="C241" s="14" t="s">
-        <v>1820</v>
+      <c r="C241" s="13" t="s">
+        <v>1814</v>
       </c>
       <c r="D241" s="12">
         <v>1.0</v>
@@ -28980,8 +28982,8 @@
         <f>VLOOKUP(A242,'Data Set'!A:B,2, False)</f>
         <v>3</v>
       </c>
-      <c r="C242" s="13" t="s">
-        <v>1822</v>
+      <c r="C242" s="14" t="s">
+        <v>1820</v>
       </c>
       <c r="D242" s="12">
         <v>0.0</v>
@@ -29002,7 +29004,7 @@
         <v>3</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D243" s="12">
         <v>1.0</v>
@@ -29023,7 +29025,7 @@
         <v>3</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D244" s="12">
         <v>1.0</v>
@@ -29044,7 +29046,7 @@
         <v>3</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D245" s="12">
         <v>1.0</v>
@@ -29065,7 +29067,7 @@
         <v>3</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D246" s="12">
         <v>1.0</v>
@@ -29086,7 +29088,7 @@
         <v>4</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D247" s="12">
         <v>1.0</v>
@@ -29107,7 +29109,7 @@
         <v>4</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D248" s="12">
         <v>1.0</v>
@@ -29127,8 +29129,8 @@
         <f>VLOOKUP(A249,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C249" s="13" t="s">
-        <v>1830</v>
+      <c r="C249" s="14" t="s">
+        <v>1828</v>
       </c>
       <c r="D249" s="12">
         <v>0.0</v>
@@ -29148,8 +29150,8 @@
         <f>VLOOKUP(A250,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C250" s="13" t="s">
-        <v>1827</v>
+      <c r="C250" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D250" s="12">
         <v>0.0</v>
@@ -29169,8 +29171,8 @@
         <f>VLOOKUP(A251,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C251" s="13" t="s">
-        <v>1830</v>
+      <c r="C251" s="14" t="s">
+        <v>1828</v>
       </c>
       <c r="D251" s="12">
         <v>0.0</v>
@@ -29190,8 +29192,8 @@
         <f>VLOOKUP(A252,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C252" s="13" t="s">
-        <v>1821</v>
+      <c r="C252" s="14" t="s">
+        <v>1819</v>
       </c>
       <c r="D252" s="12">
         <v>0.0</v>
@@ -29212,7 +29214,7 @@
         <v>4</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D253" s="12">
         <v>1.0</v>
@@ -29232,8 +29234,8 @@
         <f>VLOOKUP(A254,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C254" s="14" t="s">
-        <v>1817</v>
+      <c r="C254" s="15" t="s">
+        <v>1816</v>
       </c>
       <c r="D254" s="12">
         <v>1.0</v>
@@ -29254,7 +29256,7 @@
         <v>4</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D255" s="12">
         <v>1.0</v>
@@ -29275,7 +29277,7 @@
         <v>4</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D256" s="12">
         <v>1.0</v>
@@ -29296,7 +29298,7 @@
         <v>4</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D257" s="12">
         <v>1.0</v>
@@ -29317,7 +29319,7 @@
         <v>4</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D258" s="12">
         <v>1.0</v>
@@ -29337,8 +29339,8 @@
         <f>VLOOKUP(A259,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C259" s="13" t="s">
-        <v>1831</v>
+      <c r="C259" s="14" t="s">
+        <v>1829</v>
       </c>
       <c r="D259" s="12">
         <v>0.0</v>
@@ -29359,7 +29361,7 @@
         <v>4</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D260" s="12">
         <v>1.0</v>
@@ -29379,8 +29381,8 @@
         <f>VLOOKUP(A261,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C261" s="13" t="s">
-        <v>1832</v>
+      <c r="C261" s="14" t="s">
+        <v>1830</v>
       </c>
       <c r="D261" s="12">
         <v>0.0</v>
@@ -29401,7 +29403,7 @@
         <v>4</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D262" s="12">
         <v>1.0</v>
@@ -29422,7 +29424,7 @@
         <v>4</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D263" s="12">
         <v>1.0</v>
@@ -29442,8 +29444,8 @@
         <f>VLOOKUP(A264,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C264" s="13" t="s">
-        <v>1833</v>
+      <c r="C264" s="14" t="s">
+        <v>1831</v>
       </c>
       <c r="D264" s="12">
         <v>0.0</v>
@@ -29464,7 +29466,7 @@
         <v>4</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D265" s="12">
         <v>1.0</v>
@@ -29485,7 +29487,7 @@
         <v>4</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D266" s="12">
         <v>1.0</v>
@@ -29506,7 +29508,7 @@
         <v>4</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D267" s="12">
         <v>1.0</v>
@@ -29526,8 +29528,8 @@
         <f>VLOOKUP(A268,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C268" s="13" t="s">
-        <v>1817</v>
+      <c r="C268" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D268" s="12">
         <v>1.0</v>
@@ -29547,8 +29549,8 @@
         <f>VLOOKUP(A269,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C269" s="13" t="s">
-        <v>1822</v>
+      <c r="C269" s="14" t="s">
+        <v>1820</v>
       </c>
       <c r="D269" s="12">
         <v>0.0</v>
@@ -29569,7 +29571,7 @@
         <v>4</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D270" s="12">
         <v>1.0</v>
@@ -29590,7 +29592,7 @@
         <v>4</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D271" s="12">
         <v>1.0</v>
@@ -29611,7 +29613,7 @@
         <v>4</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D272" s="12">
         <v>1.0</v>
@@ -29632,7 +29634,7 @@
         <v>4</v>
       </c>
       <c r="C273" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D273" s="12">
         <v>1.0</v>
@@ -29653,7 +29655,7 @@
         <v>4</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D274" s="12">
         <v>1.0</v>
@@ -29674,7 +29676,7 @@
         <v>4</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D275" s="12">
         <v>1.0</v>
@@ -29694,8 +29696,8 @@
         <f>VLOOKUP(A276,'Data Set'!A:B,2, False)</f>
         <v>4</v>
       </c>
-      <c r="C276" s="13" t="s">
-        <v>1817</v>
+      <c r="C276" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D276" s="12">
         <v>1.0</v>
@@ -29715,8 +29717,8 @@
         <f>VLOOKUP(A277,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C277" s="13" t="s">
-        <v>1822</v>
+      <c r="C277" s="14" t="s">
+        <v>1820</v>
       </c>
       <c r="D277" s="12">
         <v>0.0</v>
@@ -29737,7 +29739,7 @@
         <v>5</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D278" s="12">
         <v>1.0</v>
@@ -29758,7 +29760,7 @@
         <v>5</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D279" s="12">
         <v>1.0</v>
@@ -29778,8 +29780,8 @@
         <f>VLOOKUP(A280,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C280" s="13" t="s">
-        <v>1827</v>
+      <c r="C280" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D280" s="12">
         <v>0.0</v>
@@ -29799,8 +29801,8 @@
         <f>VLOOKUP(A281,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C281" s="13" t="s">
-        <v>1834</v>
+      <c r="C281" s="14" t="s">
+        <v>1832</v>
       </c>
       <c r="D281" s="12">
         <v>0.0</v>
@@ -29820,8 +29822,8 @@
         <f>VLOOKUP(A282,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C282" s="13" t="s">
-        <v>1827</v>
+      <c r="C282" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D282" s="12">
         <v>0.0</v>
@@ -29841,8 +29843,8 @@
         <f>VLOOKUP(A283,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C283" s="13" t="s">
-        <v>1835</v>
+      <c r="C283" s="14" t="s">
+        <v>1833</v>
       </c>
       <c r="D283" s="12">
         <v>0.0</v>
@@ -29862,8 +29864,8 @@
         <f>VLOOKUP(A284,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C284" s="14" t="s">
-        <v>1817</v>
+      <c r="C284" s="15" t="s">
+        <v>1816</v>
       </c>
       <c r="D284" s="12">
         <v>1.0</v>
@@ -29884,7 +29886,7 @@
         <v>5</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D285" s="12">
         <v>1.0</v>
@@ -29905,7 +29907,7 @@
         <v>5</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D286" s="12">
         <v>1.0</v>
@@ -29926,7 +29928,7 @@
         <v>5</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D287" s="12">
         <v>1.0</v>
@@ -29947,7 +29949,7 @@
         <v>5</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D288" s="12">
         <v>1.0</v>
@@ -29967,8 +29969,8 @@
         <f>VLOOKUP(A289,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C289" s="13" t="s">
-        <v>1816</v>
+      <c r="C289" s="14" t="s">
+        <v>1815</v>
       </c>
       <c r="D289" s="12">
         <v>0.0</v>
@@ -29988,8 +29990,8 @@
         <f>VLOOKUP(A290,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C290" s="13" t="s">
-        <v>1816</v>
+      <c r="C290" s="14" t="s">
+        <v>1815</v>
       </c>
       <c r="D290" s="12">
         <v>0.0</v>
@@ -30009,8 +30011,8 @@
         <f>VLOOKUP(A291,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C291" s="14" t="s">
-        <v>1815</v>
+      <c r="C291" s="13" t="s">
+        <v>1813</v>
       </c>
       <c r="D291" s="12">
         <v>1.0</v>
@@ -30030,8 +30032,8 @@
         <f>VLOOKUP(A292,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C292" s="14" t="s">
-        <v>1815</v>
+      <c r="C292" s="13" t="s">
+        <v>1813</v>
       </c>
       <c r="D292" s="12">
         <v>1.0</v>
@@ -30051,8 +30053,8 @@
         <f>VLOOKUP(A293,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C293" s="13" t="s">
-        <v>1827</v>
+      <c r="C293" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D293" s="12">
         <v>0.0</v>
@@ -30073,7 +30075,7 @@
         <v>5</v>
       </c>
       <c r="C294" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D294" s="12">
         <v>1.0</v>
@@ -30093,8 +30095,8 @@
         <f>VLOOKUP(A295,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C295" s="13" t="s">
-        <v>1817</v>
+      <c r="C295" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D295" s="12">
         <v>1.0</v>
@@ -30115,7 +30117,7 @@
         <v>5</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D296" s="12">
         <v>1.0</v>
@@ -30135,8 +30137,8 @@
         <f>VLOOKUP(A297,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C297" s="13" t="s">
-        <v>1827</v>
+      <c r="C297" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D297" s="12">
         <v>0.0</v>
@@ -30156,8 +30158,8 @@
         <f>VLOOKUP(A298,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C298" s="13" t="s">
-        <v>1817</v>
+      <c r="C298" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D298" s="12">
         <v>1.0</v>
@@ -30178,7 +30180,7 @@
         <v>5</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D299" s="12">
         <v>1.0</v>
@@ -30198,8 +30200,8 @@
         <f>VLOOKUP(A300,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C300" s="13" t="s">
-        <v>1817</v>
+      <c r="C300" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D300" s="12">
         <v>1.0</v>
@@ -30220,7 +30222,7 @@
         <v>5</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D301" s="12">
         <v>1.0</v>
@@ -30240,8 +30242,8 @@
         <f>VLOOKUP(A302,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C302" s="13" t="s">
-        <v>1822</v>
+      <c r="C302" s="14" t="s">
+        <v>1820</v>
       </c>
       <c r="D302" s="12">
         <v>0.0</v>
@@ -30262,7 +30264,7 @@
         <v>5</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D303" s="12">
         <v>1.0</v>
@@ -30282,8 +30284,8 @@
         <f>VLOOKUP(A304,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C304" s="13" t="s">
-        <v>1817</v>
+      <c r="C304" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D304" s="12">
         <v>1.0</v>
@@ -30303,8 +30305,8 @@
         <f>VLOOKUP(A305,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C305" s="13" t="s">
-        <v>1817</v>
+      <c r="C305" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D305" s="12">
         <v>1.0</v>
@@ -30325,7 +30327,7 @@
         <v>5</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D306" s="12">
         <v>1.0</v>
@@ -30345,8 +30347,8 @@
         <f>VLOOKUP(A307,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C307" s="13" t="s">
-        <v>1818</v>
+      <c r="C307" s="14" t="s">
+        <v>1817</v>
       </c>
       <c r="D307" s="12">
         <v>0.0</v>
@@ -30366,8 +30368,8 @@
         <f>VLOOKUP(A308,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C308" s="13" t="s">
-        <v>1817</v>
+      <c r="C308" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D308" s="12">
         <v>1.0</v>
@@ -30388,7 +30390,7 @@
         <v>5</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D309" s="12">
         <v>1.0</v>
@@ -30409,7 +30411,7 @@
         <v>5</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D310" s="12">
         <v>1.0</v>
@@ -30430,7 +30432,7 @@
         <v>5</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D311" s="12">
         <v>1.0</v>
@@ -30451,7 +30453,7 @@
         <v>5</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D312" s="12">
         <v>1.0</v>
@@ -30471,8 +30473,8 @@
         <f>VLOOKUP(A313,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C313" s="13" t="s">
-        <v>1823</v>
+      <c r="C313" s="14" t="s">
+        <v>1821</v>
       </c>
       <c r="D313" s="12">
         <v>0.0</v>
@@ -30493,7 +30495,7 @@
         <v>5</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D314" s="12">
         <v>1.0</v>
@@ -30513,8 +30515,8 @@
         <f>VLOOKUP(A315,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C315" s="13" t="s">
-        <v>1823</v>
+      <c r="C315" s="14" t="s">
+        <v>1821</v>
       </c>
       <c r="D315" s="12">
         <v>0.0</v>
@@ -30535,7 +30537,7 @@
         <v>5</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D316" s="12">
         <v>1.0</v>
@@ -30555,8 +30557,8 @@
         <f>VLOOKUP(A317,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C317" s="13" t="s">
-        <v>1817</v>
+      <c r="C317" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D317" s="12">
         <v>1.0</v>
@@ -30576,8 +30578,8 @@
         <f>VLOOKUP(A318,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C318" s="13" t="s">
-        <v>1827</v>
+      <c r="C318" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D318" s="12">
         <v>0.0</v>
@@ -30597,8 +30599,8 @@
         <f>VLOOKUP(A319,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C319" s="13" t="s">
-        <v>1827</v>
+      <c r="C319" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D319" s="12">
         <v>0.0</v>
@@ -30619,7 +30621,7 @@
         <v>5</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D320" s="12">
         <v>1.0</v>
@@ -30639,8 +30641,8 @@
         <f>VLOOKUP(A321,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C321" s="13" t="s">
-        <v>1836</v>
+      <c r="C321" s="14" t="s">
+        <v>1834</v>
       </c>
       <c r="D321" s="12">
         <v>0.0</v>
@@ -30660,8 +30662,8 @@
         <f>VLOOKUP(A322,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C322" s="14" t="s">
-        <v>1818</v>
+      <c r="C322" s="15" t="s">
+        <v>1817</v>
       </c>
       <c r="D322" s="12">
         <v>1.0</v>
@@ -30681,8 +30683,8 @@
         <f>VLOOKUP(A323,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C323" s="13" t="s">
-        <v>1816</v>
+      <c r="C323" s="14" t="s">
+        <v>1815</v>
       </c>
       <c r="D323" s="12">
         <v>0.0</v>
@@ -30702,8 +30704,8 @@
         <f>VLOOKUP(A324,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C324" s="13" t="s">
-        <v>1836</v>
+      <c r="C324" s="14" t="s">
+        <v>1834</v>
       </c>
       <c r="D324" s="12">
         <v>0.0</v>
@@ -30723,8 +30725,8 @@
         <f>VLOOKUP(A325,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C325" s="13" t="s">
-        <v>1837</v>
+      <c r="C325" s="14" t="s">
+        <v>1835</v>
       </c>
       <c r="D325" s="12">
         <v>0.0</v>
@@ -30745,7 +30747,7 @@
         <v>5</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D326" s="12">
         <v>1.0</v>
@@ -30766,7 +30768,7 @@
         <v>5</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D327" s="12">
         <v>1.0</v>
@@ -30786,8 +30788,8 @@
         <f>VLOOKUP(A328,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C328" s="13" t="s">
-        <v>1838</v>
+      <c r="C328" s="14" t="s">
+        <v>1836</v>
       </c>
       <c r="D328" s="12">
         <v>0.0</v>
@@ -30807,8 +30809,8 @@
         <f>VLOOKUP(A329,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C329" s="13" t="s">
-        <v>1827</v>
+      <c r="C329" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D329" s="12">
         <v>0.0</v>
@@ -30829,7 +30831,7 @@
         <v>5</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D330" s="12">
         <v>1.0</v>
@@ -30849,8 +30851,8 @@
         <f>VLOOKUP(A331,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C331" s="13" t="s">
-        <v>1827</v>
+      <c r="C331" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D331" s="12">
         <v>0.0</v>
@@ -30870,8 +30872,8 @@
         <f>VLOOKUP(A332,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C332" s="13" t="s">
-        <v>1836</v>
+      <c r="C332" s="14" t="s">
+        <v>1834</v>
       </c>
       <c r="D332" s="12">
         <v>0.0</v>
@@ -30891,8 +30893,8 @@
         <f>VLOOKUP(A333,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C333" s="13" t="s">
-        <v>1822</v>
+      <c r="C333" s="14" t="s">
+        <v>1820</v>
       </c>
       <c r="D333" s="12">
         <v>0.0</v>
@@ -30913,7 +30915,7 @@
         <v>5</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D334" s="12">
         <v>1.0</v>
@@ -30933,8 +30935,8 @@
         <f>VLOOKUP(A335,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C335" s="13" t="s">
-        <v>1827</v>
+      <c r="C335" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D335" s="12">
         <v>0.0</v>
@@ -30954,8 +30956,8 @@
         <f>VLOOKUP(A336,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C336" s="13" t="s">
-        <v>1827</v>
+      <c r="C336" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D336" s="12">
         <v>0.0</v>
@@ -30975,8 +30977,8 @@
         <f>VLOOKUP(A337,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C337" s="13" t="s">
-        <v>1836</v>
+      <c r="C337" s="14" t="s">
+        <v>1834</v>
       </c>
       <c r="D337" s="12">
         <v>0.0</v>
@@ -30996,8 +30998,8 @@
         <f>VLOOKUP(A338,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C338" s="13" t="s">
-        <v>1825</v>
+      <c r="C338" s="14" t="s">
+        <v>1823</v>
       </c>
       <c r="D338" s="12">
         <v>0.0</v>
@@ -31017,8 +31019,8 @@
         <f>VLOOKUP(A339,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C339" s="13" t="s">
-        <v>1827</v>
+      <c r="C339" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D339" s="12">
         <v>0.0</v>
@@ -31038,8 +31040,8 @@
         <f>VLOOKUP(A340,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C340" s="13" t="s">
-        <v>1827</v>
+      <c r="C340" s="14" t="s">
+        <v>1825</v>
       </c>
       <c r="D340" s="12">
         <v>0.0</v>
@@ -31060,7 +31062,7 @@
         <v>5</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="D341" s="12">
         <v>1.0</v>
@@ -31080,8 +31082,8 @@
         <f>VLOOKUP(A342,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C342" s="13" t="s">
-        <v>1822</v>
+      <c r="C342" s="14" t="s">
+        <v>1820</v>
       </c>
       <c r="D342" s="12">
         <v>0.0</v>
@@ -31101,8 +31103,8 @@
         <f>VLOOKUP(A343,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C343" s="14" t="s">
-        <v>1820</v>
+      <c r="C343" s="13" t="s">
+        <v>1814</v>
       </c>
       <c r="D343" s="12">
         <v>1.0</v>
@@ -31122,8 +31124,8 @@
         <f>VLOOKUP(A344,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C344" s="13" t="s">
-        <v>1839</v>
+      <c r="C344" s="14" t="s">
+        <v>1837</v>
       </c>
       <c r="D344" s="12">
         <v>0.0</v>
@@ -31143,8 +31145,8 @@
         <f>VLOOKUP(A345,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C345" s="13" t="s">
-        <v>1821</v>
+      <c r="C345" s="14" t="s">
+        <v>1819</v>
       </c>
       <c r="D345" s="12">
         <v>0.0</v>
@@ -31164,8 +31166,8 @@
         <f>VLOOKUP(A346,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C346" s="13" t="s">
-        <v>1817</v>
+      <c r="C346" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D346" s="12">
         <v>1.0</v>
@@ -31186,7 +31188,7 @@
         <v>5</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D347" s="12">
         <v>1.0</v>
@@ -31207,7 +31209,7 @@
         <v>5</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D348" s="12">
         <v>1.0</v>
@@ -31227,8 +31229,8 @@
         <f>VLOOKUP(A349,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C349" s="13" t="s">
-        <v>1840</v>
+      <c r="C349" s="14" t="s">
+        <v>1838</v>
       </c>
       <c r="D349" s="12">
         <v>0.0</v>
@@ -31248,8 +31250,8 @@
         <f>VLOOKUP(A350,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C350" s="13" t="s">
-        <v>1817</v>
+      <c r="C350" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="D350" s="12">
         <v>1.0</v>
@@ -31269,8 +31271,8 @@
         <f>VLOOKUP(A351,'Data Set'!A:B,2, False)</f>
         <v>5</v>
       </c>
-      <c r="C351" s="14" t="s">
-        <v>1820</v>
+      <c r="C351" s="13" t="s">
+        <v>1814</v>
       </c>
       <c r="D351" s="12">
         <v>1.0</v>
@@ -31329,1386 +31331,1387 @@
     <col customWidth="1" min="1" max="1" width="9.57"/>
     <col customWidth="1" min="2" max="2" width="18.43"/>
     <col customWidth="1" min="4" max="4" width="23.86"/>
+    <col customWidth="1" min="5" max="5" width="22.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>1841</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>1842</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>1843</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>1844</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>1845</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>1846</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>1847</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>1848</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>1849</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>1850</v>
       </c>
-      <c r="M1" s="16" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>1851</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>1853</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>1854</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>1855</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="I2" s="20" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>1857</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>1858</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>1859</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>1860</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19">
         <v>2.0</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>1857</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>1858</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>1859</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>1860</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>1861</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="C3" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>1862</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="E3" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F3" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>1863</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>1865</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>1866</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>1867</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>1868</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>1869</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>1875</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>1877</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>1878</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>1885</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F6" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>1893</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>1894</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>1898</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>1899</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>1900</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>1901</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F8" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>1908</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>1909</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>1915</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>1917</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>1918</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F10" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>1923</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>1924</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>1892</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>1928</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>1929</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>1931</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F12" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>1936</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>1938</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>1939</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="18">
+      <c r="E13" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>1941</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>1942</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>1944</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>1945</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F14" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>1949</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>1950</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>1952</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F15" s="21">
         <v>2.0</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="G15" s="20" t="s">
+        <v>1955</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>1957</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>1958</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>1959</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>1960</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F16" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>1854</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="H16" s="20" t="s">
         <v>1864</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F3" s="20">
+      <c r="I16" s="20" t="s">
+        <v>1942</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>1963</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>1964</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>1943</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>1952</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F17" s="21">
         <v>2.0</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>1865</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>1867</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>1868</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>1869</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>1870</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>1871</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="G17" s="20" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>1966</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>1967</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>1968</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>1969</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>1970</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>1971</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F18" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>1976</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>1945</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F19" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>1762</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>1980</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>1981</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>1982</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>1983</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="19">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>1988</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>1989</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>1990</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F21" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>1992</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>1993</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>1995</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>1996</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F22" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>2000</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>2001</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>2002</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>2003</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="19">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>1872</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>1873</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="E23" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F23" s="21">
         <v>2.0</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>1875</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>1876</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>1877</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>1878</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>1879</v>
-      </c>
-      <c r="M4" s="19" t="s">
+      <c r="G23" s="20" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>2006</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>2008</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>2011</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="19">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F24" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>2014</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>2015</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>2016</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>2018</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="19">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>1880</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="D25" s="20" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F25" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>2022</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>2023</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>2024</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>2025</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="19">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="D26" s="20" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F26" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>1882</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>1883</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F5" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1884</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>1885</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>1886</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>1887</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>1888</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="18">
+      <c r="H26" s="20" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>2027</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>2028</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>2029</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>2030</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>2031</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="19">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F27" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>1913</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>2033</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>2034</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>2035</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>2036</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>2037</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F28" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>2041</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>2042</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F29" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>1966</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>2047</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>2048</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>2049</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>2050</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F30" s="21">
         <v>5.0</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F6" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>1891</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>1893</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>1894</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>1895</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>1896</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>1898</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F7" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>1884</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>1899</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>1901</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>1902</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>1903</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="18">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="G30" s="20" t="s">
+        <v>1955</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>1966</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>2052</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>2053</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>2054</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>2055</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="19">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F31" s="21">
         <v>2.0</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>1906</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>1907</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>1908</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>1909</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>1910</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>1911</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>1500</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="18">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1913</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>1914</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F9" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>1915</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>1916</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>1917</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>1918</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>1919</v>
-      </c>
-      <c r="M9" s="19" t="s">
+      <c r="G31" s="20" t="s">
         <v>1920</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="18">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>1921</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>1855</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F10" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>1922</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>1923</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>1924</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>1925</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>1926</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>1927</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>1928</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>1929</v>
-      </c>
-      <c r="F11" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>1891</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>1884</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>1894</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>1930</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>1931</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>1932</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>1933</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="18">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F12" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>1936</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>1938</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>1939</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>1940</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>1941</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="18">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="H31" s="20" t="s">
         <v>1864</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F13" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>1943</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>1944</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>1945</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>1946</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>1947</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="18">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F14" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>1950</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>1951</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>1952</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>1953</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>1954</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="18">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>1955</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F15" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>1957</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>1958</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>1959</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>1960</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>1961</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>1962</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>1963</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="18">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F16" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>1944</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>1965</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>1966</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>1945</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>1954</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="18">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F17" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1915</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>1968</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>1969</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>1970</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>1971</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>1972</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>1973</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="18">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>1974</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F18" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>1884</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>1975</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>1976</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>1977</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>1978</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>1947</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="18">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F19" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>1981</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>1762</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>1982</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>1983</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>1984</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>1985</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="18">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>1913</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F20" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>1987</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>1988</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>1989</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>1990</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>1991</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>1992</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="18">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>1993</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F21" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>1884</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>1994</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>1995</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>1996</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>1997</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>1998</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="18">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>1999</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F22" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>2000</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>1958</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>2001</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>2002</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>2003</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>2004</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>2005</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="18">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>2006</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F23" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>2007</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>2008</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>2009</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>2010</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>2011</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>2012</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>2013</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="18">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F24" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>2015</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>2016</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>2017</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>2018</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>2019</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>2020</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="18">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>2021</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F25" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>2022</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>2023</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>2024</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>2025</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>2026</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>2027</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="18">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F26" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>1884</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>2029</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>2030</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>2031</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>2032</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>2033</v>
-      </c>
-      <c r="N26" s="19" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="18">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>2034</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>1855</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F27" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>2000</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>1915</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>2035</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>2036</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>2037</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>2038</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>2039</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="18">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>2040</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F28" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>1891</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>2041</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>2042</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>2043</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>2044</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>2045</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="18">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>2047</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F29" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1857</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>1968</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>2048</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>2049</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>2050</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>2051</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>2052</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="18">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>2053</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>1855</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F30" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>1957</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>1968</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>2054</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>2055</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>2056</v>
-      </c>
-      <c r="L30" s="19" t="s">
+      <c r="I31" s="20" t="s">
         <v>2057</v>
       </c>
-      <c r="M30" s="19" t="s">
-        <v>1500</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="18">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="J31" s="20" t="s">
         <v>2058</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>2047</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F31" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>1922</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I31" s="19" t="s">
+      <c r="K31" s="20" t="s">
         <v>2059</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="L31" s="20" t="s">
         <v>2060</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="M31" s="20" t="s">
         <v>2061</v>
       </c>
-      <c r="L31" s="19" t="s">
-        <v>2062</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>2063</v>
-      </c>
-      <c r="N31" s="19" t="s">
-        <v>2063</v>
+      <c r="N31" s="20" t="s">
+        <v>2061</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
